--- a/Output/SQL_Job_DS/BIDV_MIS_20240813_DMT_100_job_SQLs.xlsx
+++ b/Output/SQL_Job_DS/BIDV_MIS_20240813_DMT_100_job_SQLs.xlsx
@@ -2258,7 +2258,7 @@
       <c r="B13" t="inlineStr">
         <is>
           <t>DELETE FROM DMMIS.ADMIN.AR_ANL_FCT_MONTHLY
-WHERE TM_PRD_DIM_ID = #pDate#;</t>
+WHERE TM_PRD_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DELETE FROM AR_ANL_FCT_TNCP where tm_prd_dim_id = #pDate#;</t>
+          <t>DELETE FROM AR_ANL_FCT_TNCP where tm_prd_dim_id = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
 FROM AR_DIM
 INNER JOIN AR_TP_DIM TP ON TP.LVL_0_NM_ENG = AR_DIM.AR_TP
 WHERE SRC_STM IN ('SIBS_CDMAST', 'SIBS_DDMAST','SIBS_LNMAST', 'SIBS_ODTIER','CADENCIE_ACCT','SIBS_TFMAST','TTSPKB')
-AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD')  AND AR_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD');</t>
+AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD')  AND AR_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD');</t>
         </is>
       </c>
     </row>
@@ -6913,8 +6913,8 @@
 FROM AR_DIM
 INNER JOIN AR_TP_DIM TP ON TP.LVL_0_NM_ENG = AR_DIM.AR_TP
 WHERE SRC_STM IN ('SIBS_LNMAST', 'SIBS_ODTIER','CADENCIE_ACCT','SIBS_TFMAST')
-AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD')  
-AND AR_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD');</t>
+AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD')  
+AND AR_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD');</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DELETE FROM AR_ANL_FTP_FCT where TM_PRD_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM AR_ANL_FTP_FCT where TM_PRD_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -7139,10 +7139,10 @@
 FROM AR_DIM
 INNER JOIN AR_TP_DIM TP ON TP.LVL_0_NM_ENG = AR_DIM.AR_TP
 INNER JOIN CST_DIM ON CST_DIM.CST_ID = AR_DIM.CST_ID 
-AND CST_DIM.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD')  AND CST_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD')
+AND CST_DIM.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD')  AND CST_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD')
 WHERE SRC_STM IN ('SIBS_CDMAST', 'SIBS_DDMAST','SIBS_LNMAST', 'SIBS_ODTIER','CADENCIE_ACCT','SIBS_TFMAST','TTSPKB')
-AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD')  
-AND AR_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD');</t>
+AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD')  
+AND AR_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD');</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DELETE FROM AR_ANL_FTP_FCT where TM_PRD_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM AR_ANL_FTP_FCT where TM_PRD_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -7364,8 +7364,8 @@
 FROM AR_DIM
 INNER JOIN AR_TP_DIM TP ON TP.LVL_0_NM_ENG = AR_DIM.AR_TP
 WHERE SRC_STM IN ('SIBS_CDMAST', 'SIBS_DDMAST','TTSPKB')
-AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD')  
-AND AR_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD');</t>
+AND AR_DIM.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD')  
+AND AR_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD');</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DELETE FROM AR_ANL_SBV_FCT WHERE TM_PRD_DIM_ID  = #pDate#;</t>
+          <t>DELETE FROM AR_ANL_SBV_FCT WHERE TM_PRD_DIM_ID  = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -7390,8 +7390,8 @@
       <c r="B38" t="inlineStr">
         <is>
           <t>DELETE FROM WRK_AR_ANL_SBV_FCT_MONTHLY_ACCR
-WHERE TM_PRD_DIM_ID  = #pDate#
-AND '01'= TO_CHAR(TO_DATE(#pDate#,'YYYYDDD') + 1,'DD') AND SRC_STM_DIM_ID =  1000547;</t>
+WHERE TM_PRD_DIM_ID  = :pDate:
+AND '01'= TO_CHAR(TO_DATE(:pDate:,'YYYYDDD') + 1,'DD') AND SRC_STM_DIM_ID =  1000547;</t>
         </is>
       </c>
     </row>
@@ -7503,32 +7503,32 @@
 		, 0 TOT_AMT_UNQLF_CCL_EXP_FCY
 		, 0 IVNT_AMT_UNQLF_CCL_FCY
 FROM  TMP_AR_ANL_FCT_STD_SBV  TWT
-LEFT JOIN SRC_STM_DIM SRC_STM_DIM	ON SRC_STM_DIM.LVL_0_ID	= TWT.SRC_STM_ID AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= SRC_STM_DIM.EFF_FM_DT AND SRC_STM_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
-LEFT JOIN OU_DIM OU_DIM			ON OU_DIM.ORG_UNIT_ID = TWT.ORG_UNIT_ID AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= OU_DIM.EFF_FM_DT AND OU_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
-LEFT JOIN CCY_DIM CCY_DIM			ON CCY_DIM.CCY_ID = TWT.DNMN_CCY_ID AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= CCY_DIM.EFF_FM_DT AND CCY_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+LEFT JOIN SRC_STM_DIM SRC_STM_DIM	ON SRC_STM_DIM.LVL_0_ID	= TWT.SRC_STM_ID AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= SRC_STM_DIM.EFF_FM_DT AND SRC_STM_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
+LEFT JOIN OU_DIM OU_DIM			ON OU_DIM.ORG_UNIT_ID = TWT.ORG_UNIT_ID AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= OU_DIM.EFF_FM_DT AND OU_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
+LEFT JOIN CCY_DIM CCY_DIM			ON CCY_DIM.CCY_ID = TWT.DNMN_CCY_ID AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= CCY_DIM.EFF_FM_DT AND CCY_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN CST_TP_ORG_IDV_SBV_DIM ON TWT.CST_TP_ORG_IDV_SBV_CODE =  CST_TP_ORG_IDV_SBV_DIM.LVL_0_CODE
-LEFT JOIN ACG_STC_ITM_DIM ACG_STC_DIM	ON ACG_STC_DIM.LVL_0_ID = TWT.BAL_ACG_STC_ITM_ID AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= ACG_STC_DIM.EFF_FM_DT AND ACG_STC_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
-LEFT JOIN ACG_STC_ITM_SBV_DIM ACG_STC_SBV_DIM	ON ACG_STC_SBV_DIM.LVL_0_ID = TWT.BAL_ACG_STC_ITM_SBV_ID AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= ACG_STC_SBV_DIM.EFF_FM_DT AND ACG_STC_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+LEFT JOIN ACG_STC_ITM_DIM ACG_STC_DIM	ON ACG_STC_DIM.LVL_0_ID = TWT.BAL_ACG_STC_ITM_ID AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= ACG_STC_DIM.EFF_FM_DT AND ACG_STC_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
+LEFT JOIN ACG_STC_ITM_SBV_DIM ACG_STC_SBV_DIM	ON ACG_STC_SBV_DIM.LVL_0_ID = TWT.BAL_ACG_STC_ITM_SBV_ID AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= ACG_STC_SBV_DIM.EFF_FM_DT AND ACG_STC_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN CST_TP_RSDNC_SBV_DIM ON (
 CASE WHEN TWT.CST_TP_RSDNC_SBV_CODE IN ('425','426')  THEN TWT.CST_TP_RSDNC_SBV_CODE = CST_TP_RSDNC_SBV_DIM.LVL_0_CODE
 	 WHEN SUBSTR(TWT.CST_TP_RSDNC_SBV_CODE,1,2) = '26'  THEN  SUBSTR(TWT.CST_TP_RSDNC_SBV_CODE,1,2)  =  CST_TP_RSDNC_SBV_DIM.LVL_0_CODE
 	 ELSE (CASE WHEN CST_TP_RSDNC_SBV_DIM.LVL_0_CODE IS NOT NULL THEN  CST_TP_RSDNC_SBV_DIM.LVL_0_CODE = '0' ELSE null END )
 	 END
 )
-AND CST_TP_RSDNC_SBV_DIM.EFF_FM_DT &lt;= DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 AND CST_TP_RSDNC_SBV_DIM.EFF_TO_DT &gt; DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+AND CST_TP_RSDNC_SBV_DIM.EFF_FM_DT &lt;= DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 AND CST_TP_RSDNC_SBV_DIM.EFF_TO_DT &gt; DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN 	CSTB_AR_TM_TO_MAT_SEQ_MP_RL ORG_TERM_SEG ON ORG_TERM_SEG.TERM_CODE = TWT.TERM_CODE 
 		AND TWT.TERM &gt;= ORG_TERM_SEG.MIN_TERM AND TWT.TERM &lt; ORG_TERM_SEG.MAX_TERM 
-	    AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= ORG_TERM_SEG.EFF_DT AND ORG_TERM_SEG.END_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+	    AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= ORG_TERM_SEG.EFF_DT AND ORG_TERM_SEG.END_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN TERM_BAL_SBV_DIM	ON   TWT.TERM_BAL_SBV_CODE  = TERM_BAL_SBV_DIM.LVL_0_CODE 
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= TERM_BAL_SBV_DIM.EFF_FM_DT AND TERM_BAL_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= TERM_BAL_SBV_DIM.EFF_FM_DT AND TERM_BAL_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN LBY_TP_SBV_DIM	ON NVL(TWT.LBY_TP_SBV_CODE,'UNKNOWS') = LBY_TP_SBV_DIM.LVL_0_CODE  and LBY_TP_SBV_DIM.LVL_0_CODE &lt;&gt;'0'
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= LBY_TP_SBV_DIM.EFF_FM_DT AND LBY_TP_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= LBY_TP_SBV_DIM.EFF_FM_DT AND LBY_TP_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN CST_TP_SBV_DIM	ON TWT.CST_TP_SBV_CODE = CST_TP_SBV_DIM.LVL_0_CODE 
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= CST_TP_SBV_DIM.EFF_FM_DT AND CST_TP_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= CST_TP_SBV_DIM.EFF_FM_DT AND CST_TP_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN AR_PPS_DIM ON TWT.AR_PPS_TP_ID = AR_PPS_DIM.LVL_0_ID
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= AR_PPS_DIM.EFF_FM_DT AND AR_PPS_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= AR_PPS_DIM.EFF_FM_DT AND AR_PPS_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN PPS_IDY_CL_SBV_DIM  PPS_SBV_DIM ON PPS_SBV_DIM.LVL_1_CODE = AR_PPS_DIM.LVL_0_CODE 
-AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= PPS_SBV_DIM.EFF_FM_DT AND PPS_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= PPS_SBV_DIM.EFF_FM_DT AND PPS_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 UNION 
 SELECT 
 		999999   AR_ID
@@ -7632,17 +7632,17 @@
 		, TWT.IVNT_AMT_UNQLF_CCL_FCY
 FROM  		TMP_GL0206_MONTHLY_SBV  TWT
 LEFT JOIN 	OU_DIM OU_DIM	ON OU_DIM.ORG_UNIT_CODE = TWT.BRANCH
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= OU_DIM.EFF_FM_DT 
-		AND OU_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= OU_DIM.EFF_FM_DT 
+		AND OU_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN 	CCY_DIM CCY_DIM ON CCY_DIM.CCY_CODE = TWT.CCY_CODE
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= CCY_DIM.EFF_FM_DT 
-		AND CCY_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= CCY_DIM.EFF_FM_DT 
+		AND CCY_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN 	ACG_STC_ITM_DIM ACG_STC_DIM	ON ACG_STC_DIM.ACG_STC_CODE = TWT.GL_BIDV 
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= ACG_STC_DIM.EFF_FM_DT 
-		AND ACG_STC_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= ACG_STC_DIM.EFF_FM_DT 
+		AND ACG_STC_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 LEFT JOIN 	ACG_STC_ITM_SBV_DIM ACG_STC_SBV_DIM	ON ACG_STC_SBV_DIM.ACG_STC_CODE_SBV = TWT.GL_SBV 
-		AND DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1 &gt;= ACG_STC_SBV_DIM.EFF_FM_DT 
-		AND ACG_STC_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(#pDate#,'YYYYDDD'))-1
+		AND DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1 &gt;= ACG_STC_SBV_DIM.EFF_FM_DT 
+		AND ACG_STC_SBV_DIM.EFF_TO_DT &gt;  DATE_TRUNC('MONTH',TO_DATE(:pDate:,'YYYYDDD'))-1
 ;</t>
         </is>
       </c>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DELETE FROM AR_ANL_SBV_FCT WHERE TM_PRD_DIM_ID  = to_number(to_char(date_trunc('MONTH',to_date(#pDate#,'yyyyddd'))-1,'yyyyddd'),9999999)
+          <t>DELETE FROM AR_ANL_SBV_FCT WHERE TM_PRD_DIM_ID  = to_number(to_char(date_trunc('MONTH',to_date(:pDate:,'yyyyddd'))-1,'yyyyddd'),9999999)
 AND SRC_STM_DIM_ID in (SELECT SRC_STM_DIM_ID FROM SRC_STM_DIM WHERE LVL_0_CODE in ('DFR_GL','ERP_GL0206'))
 ;</t>
         </is>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DELETE FROM  AST_AR_ANL_FCT_MONTHLY   WHERE TM_PRD_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM  AST_AR_ANL_FCT_MONTHLY   WHERE TM_PRD_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DELETE FROM AST_AR_ANL_FTP_FCT_MONTHLY WHERE TM_PRD_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM AST_AR_ANL_FTP_FCT_MONTHLY WHERE TM_PRD_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -12887,19 +12887,19 @@
 	, twt.ANUL_FEE_YTD_FCY
 	, twt.ANUL_FEE_YTD_LCY
 	, twt.CLS_INSTLMENT_BAL_AMT_FCY 	, twt.CLS_INSTLMENT_BAL_AMT_LCY from TWT_CARD_AC_AR_ANL_FCT twt
-inner join AR_DIM on AR_DIM.AR_ID = twt.AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-LEFT join AR_DIM AD on twt.AC_AR_ID = AD.AR_ID and AD.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AD.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-LEFT JOIN PD_DIM ON PD_DIM.PD_ID = twt.PD_ID AND PD_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
+inner join AR_DIM on AR_DIM.AR_ID = twt.AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+LEFT join AR_DIM AD on twt.AC_AR_ID = AD.AR_ID and AD.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AD.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+LEFT JOIN PD_DIM ON PD_DIM.PD_ID = twt.PD_ID AND PD_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
 LEFT join DEP_TP_DIM DEP_TP on DEP_TP.DEP_TP_LVL_0_CODE = AD.DEP_TP_CODE 
-left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and CCY_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CCY_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
+left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and CCY_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CCY_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
 left join TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
 left join TMP_PERF_CARD TMP_PERF_CARD ON TMP_PERF_CARD.CST_ID=TWT.CST_ID AND TMP_PERF_CARD.SEQ=1
-left join PERF_ST_DIM CST_PERF_CARD_ST_DIM ON CST_PERF_CARD_ST_DIM.LVL_0_ID = TMP_PERF_CARD.CL_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= CST_PERF_CARD_ST_DIM.EFF_FM_DT AND CST_PERF_CARD_ST_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-left join AR_LC_ST_DIM on AR_LC_ST_DIM.LVL_0_ID = twt.AR_LIFE_CYC_ST_TP_ID and AR_LC_ST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_LC_ST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM PRIM_ORG_UNIT_ID ON PRIM_ORG_UNIT_ID.ORG_UNIT_ID = twt.RPRG_OU_IP_ID and PRIM_ORG_UNIT_ID.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PRIM_ORG_UNIT_ID.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM SCD_ORG_UNIT_ID ON SCD_ORG_UNIT_ID.ORG_UNIT_ID = twt.RPRG_OU_IP_AC_AR_ID and SCD_ORG_UNIT_ID.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and SCD_ORG_UNIT_ID.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-LEFT JOIN OU_DIM AC_AR_MGT_DEP ON AC_AR_MGT_DEP.ORG_UNIT_ID = twt.AC_AR_MGT_DEP_DIM_ID and AC_AR_MGT_DEP.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_MGT_DEP.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
+left join PERF_ST_DIM CST_PERF_CARD_ST_DIM ON CST_PERF_CARD_ST_DIM.LVL_0_ID = TMP_PERF_CARD.CL_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= CST_PERF_CARD_ST_DIM.EFF_FM_DT AND CST_PERF_CARD_ST_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+left join AR_LC_ST_DIM on AR_LC_ST_DIM.LVL_0_ID = twt.AR_LIFE_CYC_ST_TP_ID and AR_LC_ST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_LC_ST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM PRIM_ORG_UNIT_ID ON PRIM_ORG_UNIT_ID.ORG_UNIT_ID = twt.RPRG_OU_IP_ID and PRIM_ORG_UNIT_ID.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PRIM_ORG_UNIT_ID.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM SCD_ORG_UNIT_ID ON SCD_ORG_UNIT_ID.ORG_UNIT_ID = twt.RPRG_OU_IP_AC_AR_ID and SCD_ORG_UNIT_ID.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and SCD_ORG_UNIT_ID.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+LEFT JOIN OU_DIM AC_AR_MGT_DEP ON AC_AR_MGT_DEP.ORG_UNIT_ID = twt.AC_AR_MGT_DEP_DIM_ID and AC_AR_MGT_DEP.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_MGT_DEP.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
  ;</t>
         </is>
       </c>
@@ -12919,7 +12919,7 @@
        , t.LBY_AUTO_ADJ_FTP_AMT_TDY_FCY
        , t.LBY_AUTO_ADJ_FTP_AMT_TDY_LCY
   FROM TWT_CARD_AC_AR_ANL_FTP_FCT t
- left join AR_DIM on AR_DIM.AR_ID = t.AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
+ left join AR_DIM on AR_DIM.AR_ID = t.AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
   where AR_DIM.AR_DIM_ID is not null
  ;</t>
         </is>
@@ -12949,16 +12949,16 @@
 	, NVL(AR_OFCR_EMPE_DIM.EMPE_DIM_ID, 999999)		AR_OFCR_EMPE_DIM_ID   	, NVL(AR_DEP_MGT.ORG_UNIT_DIM_ID , 999999)		AR_MGT_DEPT_DIM_ID    	, NVL(TWT.AR_EFF_DT_ID, 999999)		AR_EFF_DT_DIM_ID  	, NVL(TWT.AR_LC_ST_DT_ID, 999999) 	AR_LC_ST_DT_DIM_ID 	, NVL(TWT.REV_SVC_LCY,0)			REV_SVC_LCY
 	, NVL(TWT.BASE_PRIM_FTP_NET_CR_INCM_LCY,0)	BASE_PRIM_FTP_NET_CR_INCM_LCY
 from TWT_CARD_AR_ANL_FCT TWT
-inner join AR_DIM on AR_DIM.AR_ID = twt.AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
+inner join AR_DIM on AR_DIM.AR_ID = twt.AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
 left join TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
-LEFT JOIN EMPE_DIM AR_OFCR_EMPE_DIM	ON AR_OFCR_EMPE_DIM.EMPE_ID = TWT.AR_OFCR_EMPE_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= AR_OFCR_EMPE_DIM.EFF_FM_DT AND AR_OFCR_EMPE_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT JOIN OU_DIM AR_DEP_MGT ON AR_DEP_MGT.ORG_UNIT_ID = TWT.AR_MGT_DEPT_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= AR_DEP_MGT.EFF_FM_DT AND AR_DEP_MGT.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
+LEFT JOIN EMPE_DIM AR_OFCR_EMPE_DIM	ON AR_OFCR_EMPE_DIM.EMPE_ID = TWT.AR_OFCR_EMPE_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= AR_OFCR_EMPE_DIM.EFF_FM_DT AND AR_OFCR_EMPE_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT JOIN OU_DIM AR_DEP_MGT ON AR_DEP_MGT.ORG_UNIT_ID = TWT.AR_MGT_DEPT_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= AR_DEP_MGT.EFF_FM_DT AND AR_DEP_MGT.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
  ;</t>
         </is>
       </c>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DELETE FROM CARD_AR_ANL_FCT WHERE CDR_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM CARD_AR_ANL_FCT WHERE CDR_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -12997,24 +12997,24 @@
 		NVL(smy_mtd.CASH_SALE_AMT_LCY_MTD, 0) 		CASH_SALE_AMT_LCY_MTD,
 		NVL(smy_lmth.CASH_SALE_AMT_LCY_LMTH, 0)		CASH_SALE_AMT_LCY_LMTH,
 		NVL(smy_lmth.INT_INCM_LCY_LMTH, 0)			INT_INCM_LCY_LMTH,
-		#pDate#								TM_PRD_DIM_ID,
+		:pDate:								TM_PRD_DIM_ID,
 		ar_fct.CLS_BAL_AMT_TDY_LCY					CLS_BAL_AMT_TDY_LCY
 FROM AR_DIM m
 LEFT JOIN PD_DIM p ON p.PD_ID = m.PD_ID AND to_char(p.EFF_TO_DT, 'YYYYDDD') = 2099365 
 LEFT JOIN CST_DIM c ON c.CST_ID = m.CST_ID AND to_char(c.EFF_TO_DT, 'YYYYDDD') = 2099365
 LEFT JOIN AR_DIM a ON a.AR_NO = m.PRIM_AR_NO AND to_char(a.EFF_TO_DT, 'YYYYDDD') = 2099365 AND a.SRC_STM = 'CADENCIE_ACCT'
 LEFT JOIN EX_MAP_CARD_ST_VW_CST e ON e.SRC_ST_CODE = m.SRC_ST_CODE AND e.SRC_STM_CODE = m.SRC_STM 
-				AND #pDate# &gt;= to_char(e.EFF_FM_DT, 'YYYYDDD')
-		AND #pDate# &lt; to_char(e.EFF_TO_DT, 'YYYYDDD')
-LEFT JOIN AST_AR_ANL_FCT_DAY_LCY_1_DAILY ar_fct ON ar_fct.AR_DIM_ID = a.AR_DIM_ID AND #pDate# = TM_PRD_DIM_ID
+				AND :pDate: &gt;= to_char(e.EFF_FM_DT, 'YYYYDDD')
+		AND :pDate: &lt; to_char(e.EFF_TO_DT, 'YYYYDDD')
+LEFT JOIN AST_AR_ANL_FCT_DAY_LCY_1_DAILY ar_fct ON ar_fct.AR_DIM_ID = a.AR_DIM_ID AND :pDate: = TM_PRD_DIM_ID
 LEFT JOIN 
 (
 	SELECT PRIM_AR_DIM_ID, SUM(TXN_DB_AMT_LCY - TXN_CR_AMT_LCY) CASH_SALE_AMT_LCY_MTD FROM CNL_TXN_ANL_FCT t
 	INNER JOIN SRC_STM_DIM s ON s.SRC_STM_DIM_ID = t.SRC_STM_DIM_ID AND s.LVL_0_CODE in ('CADENCIE_EVENT', 'OASIS_SHCLOG')
 	INNER JOIN TXN_CODE_DIM t1 ON t1.TXN_CODE_DIM_ID = t.TXN_CODE_DIM_ID AND TXN_GRP_NM in ('Cash Withdrawal', 'Sale')
 	WHERE t.TXN_AMT_IND = 'Y'
-		AND to_char(DATE_TRUNC('MONTH', to_date(#pDate#, 'YYYYDDD')), 'YYYYDDD') &lt;= CDR_DIM_ID
-		AND CDR_DIM_ID &lt;= #pDate#
+		AND to_char(DATE_TRUNC('MONTH', to_date(:pDate:, 'YYYYDDD')), 'YYYYDDD') &lt;= CDR_DIM_ID
+		AND CDR_DIM_ID &lt;= :pDate:
 	GROUP BY PRIM_AR_DIM_ID
 ) smy_mtd ON smy_mtd.PRIM_AR_DIM_ID = m.AR_DIM_ID
 LEFT JOIN 
@@ -13025,8 +13025,8 @@
 	INNER JOIN SRC_STM_DIM s ON s.SRC_STM_DIM_ID = t.SRC_STM_DIM_ID AND s.LVL_0_CODE in ('CADENCIE_EVENT', 'OASIS_SHCLOG')
 	INNER JOIN TXN_CODE_DIM t1 ON t1.TXN_CODE_DIM_ID = t.TXN_CODE_DIM_ID AND (t1.TXN_GRP_NM in ('Cash Withdrawal', 'Sale') OR t1.LVL_0_CODE = '5000')
 	WHERE t.TXN_AMT_IND = 'Y'
-		AND to_char(DATE_TRUNC('MONTH', DATE_TRUNC('MONTH', to_date(#pDate#, 'YYYYDDD'))-1), 'YYYYDDD') &lt;= CDR_DIM_ID 
-		AND CDR_DIM_ID &lt;= to_char(DATE_TRUNC('MONTH', to_date(#pDate#, 'YYYYDDD'))-1, 'YYYYDDD')
+		AND to_char(DATE_TRUNC('MONTH', DATE_TRUNC('MONTH', to_date(:pDate:, 'YYYYDDD'))-1), 'YYYYDDD') &lt;= CDR_DIM_ID 
+		AND CDR_DIM_ID &lt;= to_char(DATE_TRUNC('MONTH', to_date(:pDate:, 'YYYYDDD'))-1, 'YYYYDDD')
 	GROUP BY PRIM_AR_DIM_ID
 ) smy_lmth ON smy_lmth.PRIM_AR_DIM_ID = m.AR_DIM_ID
 WHERE m.SRC_STM in ('CADENCIE_CARD', 'DATATM_X1PCMS');</t>
@@ -13081,38 +13081,38 @@
 		, NVL(twt.PRIM_AR_ID,999999)			PRIM_AR_ID
 		, NVL(twt.MRCH_RATE_PCT,0)				MRCH_RATE_PCT						, twt.TXN_REMARK						TXN_REMARK
 		, Nvl(t31.ORG_UNIT_DIM_ID, 999999) 				CNL_MGT_DEP_DIM_ID				, Nvl(t33.EMPE_DIM_ID, 999999) 					CNL_OFCR_EMPE_DIM_ID			, TWT.AHR_CODE									AHR_CODE						, NVL(MRCH_CGY.MRCH_CGY_DIM_ID, 999999) 		MRCH_CGY_DIM_ID 				, NVL(SRC_STM_DIM.SRC_STM_DIM_ID,999999)	 	SRC_STM_DIM_ID 					, NVL(ORIG_CCY.CCY_DM_ID, 999999)				ORIG_CCY_DIM_ID					, NVL(TWT.TXN_ID, 999999)						TXN_ID							, NVL(MRCH_ORG.ORG_UNIT_DIM_ID, 999999)			MRCH_ORG_UNIT_DIM_ID 			, NVL(TWT.TXN_LCL_DT_ID, 999999)	TXN_LCL_DT_DIM_ID			, NVL(TWT.TXN_PRCH_DT_ID, 999999)	TXN_PRCH_DT_DIM_ID	  FROM TWT_CARD_TXN_ANL_FCT TWT
-left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(#pDate#,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
-left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(#pDate#,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
-left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(#pDate#,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
-left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(#pDate#,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
-left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(#pDate#,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
-left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(#pDate#,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
-left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(#pDate#,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
+left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(:pDate:,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
+left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(:pDate:,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
+left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(:pDate:,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
+left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(:pDate:,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
+left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(:pDate:,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
+left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(:pDate:,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
+left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(:pDate:,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
 left join (SELECT DISTINCT PD_ID, CARD_TP_ACQ_LVL_0_ID FROM EX_MAP_CARD_TP_ACQ e 
-            where  to_date(#pDate#,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
+            where  to_date(:pDate:,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
             ) e ON e.PD_ID = twt.PD_ID
-left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(#pDate#,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
-left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(#pDate#,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
-left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(#pDate#,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
-left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(#pDate#,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
-left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(#pDate#,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
+left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(:pDate:,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
+left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(:pDate:,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
+left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(:pDate:,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
+left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(:pDate:,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
+left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(:pDate:,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
 left join TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
 LEFT JOIN OU_DIM t31 ON t31.ORG_UNIT_ID = TWT.CNL_MGT_DEP_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t31.EFF_TO_DT			
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t31.EFF_TO_DT			
 LEFT JOIN EMPE_DIM T33 ON T33.EMPE_ID=TWT.CNL_OFCR_EMPE_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t33.EFF_TO_DT
-LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON TWT.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(#pDate#,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(#pDate#,'YYYYDDD')
-LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = TWT.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD')
-LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = TWT.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD') 
-LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(#pDate#,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 UNION ALL
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t33.EFF_TO_DT
+LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON TWT.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(:pDate:,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(:pDate:,'YYYYDDD')
+LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = TWT.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD')
+LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = TWT.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD') 
+LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(:pDate:,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 UNION ALL
 SELECT    NVL(CST_DIM.CST_DIM_ID,999999)			CST_DIM_ID
 		, NVL(PD_DIM.PD_DIM_ID,999999)				PD_DIM_ID
 		, NVL(PRIM_OU.ORG_UNIT_DIM_ID,999999)		PRIM_ORG_DIM_UNIT_ID
@@ -13154,38 +13154,38 @@
 		, NVL(twt.MRCH_RATE_PCT,0)						MRCH_RATE_PCT						, twt.TXN_REMARK								TXN_REMARK
 		, Nvl(t31.ORG_UNIT_DIM_ID, 999999) 				CNL_MGT_DEP_DIM_ID 					, Nvl(t33.EMPE_DIM_ID, 999999) 					CNL_OFCR_EMPE_DIM_ID				, m.AHR_CODE									AHR_CODE							, NVL(MRCH_CGY.MRCH_CGY_DIM_ID, 999999) 		MRCH_CGY_DIM_ID 					, NVL(SRC_STM_DIM.SRC_STM_DIM_ID,999999)		SRC_STM_DIM_ID 						, NVL(ORIG_CCY.CCY_DM_ID, 999999)				ORIG_CCY_DIM_ID						, NVL(m.TXN_ID, 999999)							TXN_ID							, NVL(MRCH_ORG.ORG_UNIT_DIM_ID, 999999)			MRCH_ORG_UNIT_DIM_ID 			, NVL(m.TXN_LCL_DT_ID, 999999)	TXN_LCL_DT_DIM_ID			, NVL(m.TXN_PRCH_DT_ID, 999999)	TXN_PRCH_DT_DIM_ID	  FROM TWT_FEE_CARD_TXN_ANL_FCT m
 inner join TWT_CARD_TXN_ANL_FCT TWT on TWT.TXN_ID = m.TXN_ID
-left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(#pDate#,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
-left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(#pDate#,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
-left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(#pDate#,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
-left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(#pDate#,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
-left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(#pDate#,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
-left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(#pDate#,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
-left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(#pDate#,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
+left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(:pDate:,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
+left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(:pDate:,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
+left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(:pDate:,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
+left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(:pDate:,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
+left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(:pDate:,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
+left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(:pDate:,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
+left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(:pDate:,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
 left join (SELECT DISTINCT PD_ID, CARD_TP_ACQ_LVL_0_ID FROM EX_MAP_CARD_TP_ACQ e 
-            where  to_date(#pDate#,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
+            where  to_date(:pDate:,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
             ) e ON e.PD_ID = twt.PD_ID
-left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(#pDate#,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
-left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(#pDate#,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
-left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(#pDate#,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
-left join FEE_TP_DIM FEE_TP ON FEE_TP.LVL_0_ID = m.FEE_TP_ID and to_date(#pDate#,'yyyyddd') between FEE_TP.EFF_FM_DT and FEE_TP.EFF_TO_DT - 1
-left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(#pDate#,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
-left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(#pDate#,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
+left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(:pDate:,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
+left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(:pDate:,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
+left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(:pDate:,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
+left join FEE_TP_DIM FEE_TP ON FEE_TP.LVL_0_ID = m.FEE_TP_ID and to_date(:pDate:,'yyyyddd') between FEE_TP.EFF_FM_DT and FEE_TP.EFF_TO_DT - 1
+left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(:pDate:,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
+left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(:pDate:,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
 left join TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
 LEFT JOIN OU_DIM t31 ON t31.ORG_UNIT_ID = twt.CNL_MGT_DEP_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t31.EFF_TO_DT
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t31.EFF_TO_DT
 LEFT JOIN EMPE_DIM T33 ON T33.EMPE_ID=twt.CNL_OFCR_EMPE_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t33.EFF_TO_DT
-LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON m.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(#pDate#,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(#pDate#,'YYYYDDD') 
-LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = m.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD')
-LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = m.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD') LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(#pDate#,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 ;</t>
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t33.EFF_TO_DT
+LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON m.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(:pDate:,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(:pDate:,'YYYYDDD') 
+LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = m.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD')
+LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = m.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD') LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(:pDate:,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 ;</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DELETE FROM CARD_TXN_ANL_FCT WHERE CDR_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM CARD_TXN_ANL_FCT WHERE CDR_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -13249,38 +13249,38 @@
 		, NVL(twt.PRIM_AR_ID,999999)			PRIM_AR_ID
 		, NVL(twt.MRCH_RATE_PCT,0)				MRCH_RATE_PCT						, twt.TXN_REMARK						TXN_REMARK
 		, Nvl(t31.ORG_UNIT_DIM_ID, 999999) 				CNL_MGT_DEP_DIM_ID				, Nvl(t33.EMPE_DIM_ID, 999999) 					CNL_OFCR_EMPE_DIM_ID			, TWT.AHR_CODE									AHR_CODE						, NVL(MRCH_CGY.MRCH_CGY_DIM_ID, 999999) 		MRCH_CGY_DIM_ID 				, NVL(SRC_STM_DIM.SRC_STM_DIM_ID,999999)	 	SRC_STM_DIM_ID 					, NVL(ORIG_CCY.CCY_DM_ID, 999999)				ORIG_CCY_DIM_ID					, NVL(TWT.TXN_ID, 999999)						TXN_ID							, NVL(MRCH_ORG.ORG_UNIT_DIM_ID, 999999)			MRCH_ORG_UNIT_DIM_ID 			, NVL(TWT.TXN_LCL_DT_ID, 999999)	TXN_LCL_DT_DIM_ID			, NVL(TWT.TXN_PRCH_DT_ID, 999999)	TXN_PRCH_DT_DIM_ID	  FROM TWT_CARD_TXN_ANL_FCT TWT
-left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(#pDate#,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
-left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(#pDate#,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
-left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(#pDate#,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
-left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(#pDate#,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
-left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(#pDate#,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
-left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(#pDate#,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
-left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(#pDate#,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
+left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(:pDate:,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
+left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(:pDate:,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
+left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(:pDate:,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
+left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(:pDate:,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
+left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(:pDate:,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
+left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(:pDate:,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
+left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(:pDate:,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
 left join (SELECT DISTINCT PD_ID, CARD_TP_ACQ_LVL_0_ID FROM EX_MAP_CARD_TP_ACQ e 
-            where  to_date(#pDate#,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
+            where  to_date(:pDate:,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
             ) e ON e.PD_ID = twt.PD_ID
-left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(#pDate#,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
-left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(#pDate#,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
-left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(#pDate#,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
-left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(#pDate#,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
-left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(#pDate#,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
+left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(:pDate:,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
+left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(:pDate:,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
+left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(:pDate:,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
+left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(:pDate:,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
+left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(:pDate:,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
 left join TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
 LEFT JOIN OU_DIM t31 ON t31.ORG_UNIT_ID = TWT.CNL_MGT_DEP_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t31.EFF_TO_DT			
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t31.EFF_TO_DT			
 LEFT JOIN EMPE_DIM T33 ON T33.EMPE_ID=TWT.CNL_OFCR_EMPE_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t33.EFF_TO_DT
-LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON TWT.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(#pDate#,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(#pDate#,'YYYYDDD')
-LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = TWT.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD')
-LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = TWT.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD') 
-LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(#pDate#,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 UNION ALL
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t33.EFF_TO_DT
+LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON TWT.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(:pDate:,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(:pDate:,'YYYYDDD')
+LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = TWT.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD')
+LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = TWT.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD') 
+LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(:pDate:,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 UNION ALL
 SELECT    NVL(CST_DIM.CST_DIM_ID,999999)			CST_DIM_ID
 		, NVL(PD_DIM.PD_DIM_ID,999999)				PD_DIM_ID
 		, NVL(PRIM_OU.ORG_UNIT_DIM_ID,999999)		PRIM_ORG_DIM_UNIT_ID
@@ -13322,38 +13322,38 @@
 		, NVL(twt.MRCH_RATE_PCT,0)						MRCH_RATE_PCT						, twt.TXN_REMARK								TXN_REMARK
 		, Nvl(t31.ORG_UNIT_DIM_ID, 999999) 				CNL_MGT_DEP_DIM_ID 					, Nvl(t33.EMPE_DIM_ID, 999999) 					CNL_OFCR_EMPE_DIM_ID				, m.AHR_CODE									AHR_CODE							, NVL(MRCH_CGY.MRCH_CGY_DIM_ID, 999999) 		MRCH_CGY_DIM_ID 					, NVL(SRC_STM_DIM.SRC_STM_DIM_ID,999999)		SRC_STM_DIM_ID 						, NVL(ORIG_CCY.CCY_DM_ID, 999999)				ORIG_CCY_DIM_ID						, NVL(m.TXN_ID, 999999)							TXN_ID							, NVL(MRCH_ORG.ORG_UNIT_DIM_ID, 999999)			MRCH_ORG_UNIT_DIM_ID 			, NVL(m.TXN_LCL_DT_ID, 999999)	TXN_LCL_DT_DIM_ID			, NVL(m.TXN_PRCH_DT_ID, 999999)	TXN_PRCH_DT_DIM_ID	  FROM TWT_FEE_CARD_TXN_ANL_FCT m
 inner join TWT_CARD_TXN_ANL_FCT TWT on TWT.TXN_ID = m.TXN_ID
-left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(#pDate#,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
-left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(#pDate#,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
-left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(#pDate#,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
-left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(#pDate#,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
-left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(#pDate#,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
-left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(#pDate#,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
-left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(#pDate#,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
+left join AR_DIM on AR_DIM.AR_ID = twt.PRIM_AR_ID and AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_DIM AC_AR_DIM on AC_AR_DIM.AR_ID = twt.AC_AR_ID and AC_AR_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CST_DIM on CST_DIM.CST_ID = twt.CST_ID and CST_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CST_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join PD_DIM on PD_DIM.PD_ID = twt.PD_ID and PD_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PD_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AR_LCS on AR_LCS.LVL_0_ID = twt.AR_LIFE_CYC_ST_ID and AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join AR_LC_ST_DIM AC_AR_LCS on AC_AR_LCS.LVL_0_ID = twt.AC_AR_LIFE_CYC_ST_ID and AC_AR_LCS.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and AC_AR_LCS.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ISSUING_ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM PRIM_OU on PRIM_OU.ORG_UNIT_ID = TWT.PRIM_ORG_UNIT_ID and PRIM_OU.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and PRIM_OU.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join CNL_TP_DIM CNL_TP on CNL_TP.LVL_0_ID = twt.CNL_TP_ID and to_date(:pDate:,'yyyyddd') between CNL_TP.EFF_FM_DT and CNL_TP.EFF_TO_DT - 1
+left join CCY_DIM on CCY_DIM.CCY_ID = twt.CCY_ID and to_date(:pDate:,'yyyyddd') between CCY_DIM.EFF_FM_DT and CCY_DIM.EFF_TO_DT - 1
+left join CNL_DIM on CNL_DIM.CNL_ID = twt.CNL_ID and to_date(:pDate:,'yyyyddd') between CNL_DIM.EFF_FM_DT and CNL_DIM.EFF_TO_DT - 1
+left join MRCH_DIM on MRCH_DIM.MRCH_ID = twt.MRCH_ID and to_date(:pDate:,'yyyyddd') between MRCH_DIM.EFF_FM_DT and MRCH_DIM.EFF_TO_DT - 1
+left join CTY_DIM on CTY_DIM.LVL_0_ID = twt.CTY_OF_TXN_ID and to_date(:pDate:,'yyyyddd') between CTY_DIM.EFF_FM_DT and CTY_DIM.EFF_TO_DT - 1
+left join TXN_LC_ST_DIM on TXN_LC_ST_DIM.LVL_0_ID = twt.TXN_LC_ST_ID and to_date(:pDate:,'yyyyddd') between TXN_LC_ST_DIM.EFF_FM_DT and TXN_LC_ST_DIM.EFF_TO_DT - 1
+left join OU_DIM AR_MGT_DEPT on AR_MGT_DEPT.ORG_UNIT_ID = twt.PRIM_AR_MGT_DEP_ID and to_date(:pDate:,'yyyyddd') between AR_MGT_DEPT.EFF_FM_DT and AR_MGT_DEPT.EFF_TO_DT - 1
 left join (SELECT DISTINCT PD_ID, CARD_TP_ACQ_LVL_0_ID FROM EX_MAP_CARD_TP_ACQ e 
-            where  to_date(#pDate#,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
+            where  to_date(:pDate:,'yyyyddd') between e.EFF_FM_DT and e.EFF_TO_DT - 1
             ) e ON e.PD_ID = twt.PD_ID
-left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(#pDate#,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
-left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(#pDate#,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
-left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(#pDate#,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
-left join FEE_TP_DIM FEE_TP ON FEE_TP.LVL_0_ID = m.FEE_TP_ID and to_date(#pDate#,'yyyyddd') between FEE_TP.EFF_FM_DT and FEE_TP.EFF_TO_DT - 1
-left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(#pDate#,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
-left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(#pDate#,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
+left join CARD_TP_ACQ_DIM CARD_TP_ACQ on CARD_TP_ACQ.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID and to_date(:pDate:,'yyyyddd') between CARD_TP_ACQ.EFF_FM_DT and CARD_TP_ACQ.EFF_TO_DT - 1
+left join TXN_NTW_DIM TXN_NTW on TXN_NTW.LVL_0_ID = twt.TXN_NTW_ID and to_date(:pDate:,'yyyyddd') between TXN_NTW.EFF_FM_DT and TXN_NTW.EFF_TO_DT - 1
+left join TXN_CODE_DIM TXN_CODE ON TXN_CODE.LVL_0_ID = twt.TXN_CODE_ID and to_date(:pDate:,'yyyyddd') between TXN_CODE.EFF_FM_DT and TXN_CODE.EFF_TO_DT - 1
+left join FEE_TP_DIM FEE_TP ON FEE_TP.LVL_0_ID = m.FEE_TP_ID and to_date(:pDate:,'yyyyddd') between FEE_TP.EFF_FM_DT and FEE_TP.EFF_TO_DT - 1
+left join EMPE_DIM on EMPE_DIM.EMPE_ID = twt.MRCH_OFCR_EMPE_ID  and to_date(:pDate:,'yyyyddd') between EMPE_DIM.EFF_FM_DT and EMPE_DIM.EFF_TO_DT - 1
+left join OU_DIM MRCH_MGT_DEP on MRCH_MGT_DEP.ORG_UNIT_ID = twt.MRCH_MGT_DEPT_ID and to_date(:pDate:,'yyyyddd') between MRCH_MGT_DEP.EFF_FM_DT and MRCH_MGT_DEP.EFF_TO_DT - 1
 left join TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
 LEFT JOIN OU_DIM t31 ON t31.ORG_UNIT_ID = twt.CNL_MGT_DEP_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t31.EFF_TO_DT
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t31.EFF_TO_DT
 LEFT JOIN EMPE_DIM T33 ON T33.EMPE_ID=twt.CNL_OFCR_EMPE_ID
- 	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t33.EFF_TO_DT
-LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON m.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(#pDate#,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(#pDate#,'YYYYDDD') 
-LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = m.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD')
-LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = m.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(#pDate#,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(#pDate#,'YYYYDDD') LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(#pDate#,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 ;</t>
+ 	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t33.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t33.EFF_TO_DT
+LEFT JOIN MRCH_CGY_DIM MRCH_CGY ON m.MRCH_CGY_ID = MRCH_CGY.LVL_0_ID AND MRCH_CGY.EFF_FM_DT&lt;=to_date(:pDate:,'YYYYDDD') and MRCH_CGY.EFF_TO_DT&gt;to_date(:pDate:,'YYYYDDD') 
+LEFT JOIN SRC_STM_DIM ON SRC_STM_DIM.LVL_0_ID = m.SRC_STM_ID AND SRC_STM_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND SRC_STM_DIM.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD')
+LEFT JOIN CCY_DIM ORIG_CCY ON ORIG_CCY.CCY_ID = m.ORIG_CCY_ID AND ORIG_CCY.EFF_FM_DT &lt;= to_date(:pDate:,'YYYYDDD') AND ORIG_CCY.EFF_TO_DT &gt; to_date(:pDate:,'YYYYDDD') LEFT JOIN OU_DIM MRCH_ORG ON MRCH_ORG.ORG_UNIT_ID = TWT.MRCH_ORG_UNIT_ID and to_date(:pDate:,'yyyyddd') between MRCH_ORG.EFF_FM_DT and MRCH_ORG.EFF_TO_DT - 1 ;</t>
         </is>
       </c>
     </row>
@@ -13407,9 +13407,9 @@
 	, NVL(OU_DIM.ORG_UNIT_DIM_ID,999999)		ORG_UNIT_DIM_ID
 	, twt.CNL_ID							CNL_ID
 	, NVL(dept.ORG_UNIT_DIM_ID,999999) MGT_DEPT_DIM_ID from TWT_CNL_ANL_FCT TWT
-left join CNL_DIM on CNL_DIM.CNL_ID = TWT.CNL_ID and CNL_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and CNL_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
-left join OU_DIM dept on dept.ORG_UNIT_ID = TWT.MGT_DEPT_ID and dept.EFF_FM_DT &lt;= to_date(#pDate#,'yyyyddd') and dept.EFF_TO_DT &gt; to_date(#pDate#,'yyyyddd')
+left join CNL_DIM on CNL_DIM.CNL_ID = TWT.CNL_ID and CNL_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and CNL_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM on OU_DIM.ORG_UNIT_ID = TWT.ORG_UNIT_ID and OU_DIM.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and OU_DIM.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
+left join OU_DIM dept on dept.ORG_UNIT_ID = TWT.MGT_DEPT_ID and dept.EFF_FM_DT &lt;= to_date(:pDate:,'yyyyddd') and dept.EFF_TO_DT &gt; to_date(:pDate:,'yyyyddd')
 ;</t>
         </is>
       </c>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DELETE FROM CNL_ANL_FCT WHERE CDR_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM CNL_ANL_FCT WHERE CDR_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -13614,71 +13614,71 @@
 		   , to_char(last_day(to_date(t.CDR_DIM_ID,'yyyyddd')),'yyyyddd')  CDR_MO_DT_DIM_ID
 	  FROM TWT_CNL_TXN_ANL_FCT t
 	 	 LEFT JOIN CNL_DIM t2 ON t2.CNL_ID = t.CNL_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t2.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t2.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t2.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t2.EFF_TO_DT
 	 LEFT JOIN CNL_TP_DIM t3 ON t3.LVL_0_ID = t.CNL_TP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t3.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t3.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t3.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t3.EFF_TO_DT
 	 LEFT JOIN CCY_DIM t4 ON t4.CCY_ID = t.CCY_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t4.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t4.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t4.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t4.EFF_TO_DT
 	 LEFT JOIN CST_DIM t5 ON t5.CST_ID = t.CST_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t5.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t5.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t5.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t5.EFF_TO_DT
 	 LEFT JOIN MRCH_DIM t9 ON t9.MRCH_ID = t.MRCH_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t9.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t9.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t9.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t9.EFF_TO_DT
 	 LEFT JOIN AR_DIM t11 ON t11.AR_ID = t.PRIM_AR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t11.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t11.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t11.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t11.EFF_TO_DT
 	 LEFT JOIN OU_DIM t12 ON t12.ORG_UNIT_ID = t.PRIM_ORG_DIM_UNIT_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t12.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t12.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t12.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t12.EFF_TO_DT
 	 LEFT JOIN PD_DIM t13 ON t13.PD_ID = t.PD_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t13.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t13.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t13.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t13.EFF_TO_DT
 	 LEFT JOIN CNL_DIM t14 ON t14.CNL_ID = t.SETL_CNL_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t14.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t14.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t14.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t14.EFF_TO_DT
 	 LEFT JOIN TXN_CODE_DIM t15 ON t15.LVL_0_ID = t.TXN_CODE_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t15.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t15.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t15.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t15.EFF_TO_DT
 	 LEFT JOIN TXN_LC_ST_DIM t16 ON t16.LVL_0_ID = t.TXN_LIFE_CYC_ST_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t16.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t16.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t16.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t16.EFF_TO_DT
 	 LEFT JOIN TXN_NTW_DIM t17 ON t17.LVL_0_ID = t.TXN_NTW_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t17.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t17.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t17.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t17.EFF_TO_DT
 	 LEFT JOIN MRCH_CGY_DIM t18 ON t18.LVL_0_ID = t.MRCH_CGY_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t18.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t18.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t18.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t18.EFF_TO_DT
 	 LEFT JOIN CNL_TP_PVDR_DIM t19 ON t19.LVL_0_ID = t.CNL_TP_PVDR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t19.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t19.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t19.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t19.EFF_TO_DT
 	 LEFT JOIN EMPE_DIM t21 ON t21.EMPE_ID = t.AR_RLTNP_OFCR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t21.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t21.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t21.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t21.EFF_TO_DT
 	LEFT JOIN SRC_STM_DIM t24 ON t24.LVL_0_ID = t.SRC_STM_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t24.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t24.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t24.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t24.EFF_TO_DT
 	 LEFT JOIN CTY_DIM t25 ON t25.LVL_0_ID = t.CTY_OF_TXN_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t25.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t25.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t25.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t25.EFF_TO_DT
 		LEFT JOIN TMP_CST_SEG ON TMP_CST_SEG.CST_ID = t.CST_DIM_ID AND TMP_CST_SEG.TM_PRD_ID = t.CDR_DIM_ID
 	LEFT JOIN TXN_AMT_SEG_DIM TXN_AMT_SEG_DIM ON
 	   abs(t.TXN_CR_AMT_LCY - t.TXN_DB_AMT_LCY) &gt;= TXN_AMT_SEG_DIM.MIN_BAL AND abs(t.TXN_CR_AMT_LCY - t.TXN_DB_AMT_LCY) &lt; TXN_AMT_SEG_DIM.MAX_BAL
 		LEFT JOIN (SELECT DISTINCT PD_ID, CARD_TP_ACQ_LVL_0_ID FROM EX_MAP_CARD_TP_ACQ e
 				INNER JOIN CSTB_SYSTEM SYS ON SYS.PARAM_NAME = 'ETL_DATE' 
-				where  TO_DATE(#pDate#,'YYYYDDD') &gt;= e.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; e.EFF_TO_DT
+				where  TO_DATE(:pDate:,'YYYYDDD') &gt;= e.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; e.EFF_TO_DT
 				) e ON e.PD_ID = t.PD_DIM_ID
 	LEFT JOIN CARD_TP_ACQ_DIM t26 ON t26.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t26.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t26.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t26.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t26.EFF_TO_DT
 	LEFT JOIN AR_DIM_SVC t27 ON t27.AR_ID = t.PRIM_AR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t27.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t27.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t27.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t27.EFF_TO_DT
 	LEFT JOIN admin.TMP_CST_BAL_LMT_SLRY_AGE_SEG on t.CST_DIM_ID = TMP_CST_BAL_LMT_SLRY_AGE_SEG.CST_ID
 	LEFT JOIN EMPE_DIM   on EMPE_DIM.EMPE_ID=t.OBJ_IP_ID 
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= EMPE_DIM.EFF_FM_DT
-		AND EMPE_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= EMPE_DIM.EFF_FM_DT
+		AND EMPE_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
 	LEFT JOIN OU_DIM ON T.TXN_ORG_UNIT_ID = OU_DIM.ORG_UNIT_ID
-		AND OU_DIM.EFF_FM_DT  &lt;= TO_DATE(#pDate#,'YYYYDDD') 
-		AND OU_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#,'YYYYDDD')
+		AND OU_DIM.EFF_FM_DT  &lt;= TO_DATE(:pDate:,'YYYYDDD') 
+		AND OU_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:,'YYYYDDD')
 		LEFT JOIN OU_DIM t30 ON t30.ORG_UNIT_ID = t.MRCH_MGT_DEP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t30.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t30.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t30.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t30.EFF_TO_DT
 	LEFT JOIN OU_DIM t31 ON t31.ORG_UNIT_ID = t.CNL_MGT_DEP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t31.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t31.EFF_TO_DT
 	LEFT JOIN OU_DIM t32 ON t32.ORG_UNIT_ID = t.AR_MGT_DEP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t32.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t32.EFF_TO_DT
 	LEFT JOIN EMPE_DIM T33 ON T33.EMPE_ID=T.CNL_OFCR_EMPE_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t32.EFF_TO_DT
-	LEFT JOIN OU_DIM RQS_CNL_MGT_DEP ON RQS_CNL_MGT_DEP.ORG_UNIT_ID = t.RQS_CNL_MGT_DEP_ID AND TO_DATE(#pDate#, 'YYYYDDD') BETWEEN RQS_CNL_MGT_DEP.EFF_FM_DT AND RQS_CNL_MGT_DEP.EFF_TO_DT - 1 		LEFT JOIN AR_DIM t34 ON t34.AR_ID = t.SCD_AR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t34.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t34.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t32.EFF_TO_DT
+	LEFT JOIN OU_DIM RQS_CNL_MGT_DEP ON RQS_CNL_MGT_DEP.ORG_UNIT_ID = t.RQS_CNL_MGT_DEP_ID AND TO_DATE(:pDate:, 'YYYYDDD') BETWEEN RQS_CNL_MGT_DEP.EFF_FM_DT AND RQS_CNL_MGT_DEP.EFF_TO_DT - 1 		LEFT JOIN AR_DIM t34 ON t34.AR_ID = t.SCD_AR_DIM_ID
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t34.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t34.EFF_TO_DT
 	LEFT JOIN ACG_STC_ITM_DIM t35 ON t35.LVL_0_ID = t.ACG_STC_ITM_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t35.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t35.EFF_TO_DT 
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t35.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t35.EFF_TO_DT 
 	LEFT JOIN CCY_DIM t36 ON t36.CCY_ID = t.SCD_CCY_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t36.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t36.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t36.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t36.EFF_TO_DT
 ) A;</t>
         </is>
       </c>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DELETE FROM CNL_TXN_ANL_FCT where CDR_DIM_ID=#pDate#  and FEE_TP_DIM_ID=0;</t>
+          <t>DELETE FROM CNL_TXN_ANL_FCT where CDR_DIM_ID=:pDate:  and FEE_TP_DIM_ID=0;</t>
         </is>
       </c>
     </row>
@@ -13889,73 +13889,73 @@
 	  		 ,CLS_BAL_AMT_LCY
 	  FROM TWT_CNL_TXN_ANL_FCT t
 	 	 LEFT JOIN CNL_DIM t2 ON t2.CNL_ID = t.CNL_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t2.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t2.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t2.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t2.EFF_TO_DT
 	 LEFT JOIN CNL_TP_DIM t3 ON t3.LVL_0_ID = t.CNL_TP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t3.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t3.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t3.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t3.EFF_TO_DT
 	 LEFT JOIN CCY_DIM t4 ON t4.CCY_ID = t.CCY_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t4.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t4.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t4.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t4.EFF_TO_DT
 	 LEFT JOIN CST_DIM t5 ON t5.CST_ID = t.CST_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t5.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t5.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t5.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t5.EFF_TO_DT
 	 LEFT JOIN MRCH_DIM t9 ON t9.MRCH_ID = t.MRCH_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t9.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t9.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t9.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t9.EFF_TO_DT
 	 LEFT JOIN AR_DIM t11 ON t11.AR_ID = t.PRIM_AR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t11.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t11.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t11.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t11.EFF_TO_DT
 	 LEFT JOIN OU_DIM t12 ON t12.ORG_UNIT_ID = t.PRIM_ORG_DIM_UNIT_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t12.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t12.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t12.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t12.EFF_TO_DT
 	 LEFT JOIN PD_DIM t13 ON t13.PD_ID = t.PD_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t13.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t13.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t13.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t13.EFF_TO_DT
 	 LEFT JOIN CNL_DIM t14 ON t14.CNL_ID = t.SETL_CNL_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t14.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t14.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t14.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t14.EFF_TO_DT
 	 LEFT JOIN TXN_CODE_DIM t15 ON t15.LVL_0_ID = t.TXN_CODE_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t15.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t15.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t15.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t15.EFF_TO_DT
 	 LEFT JOIN TXN_LC_ST_DIM t16 ON t16.LVL_0_ID = t.TXN_LIFE_CYC_ST_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t16.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t16.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t16.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t16.EFF_TO_DT
 	 LEFT JOIN TXN_NTW_DIM t17 ON t17.LVL_0_ID = t.TXN_NTW_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t17.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t17.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t17.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t17.EFF_TO_DT
 	 LEFT JOIN MRCH_CGY_DIM t18 ON t18.LVL_0_ID = t.MRCH_CGY_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t18.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t18.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t18.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t18.EFF_TO_DT
 	 LEFT JOIN CNL_TP_PVDR_DIM t19 ON t19.LVL_0_ID = t.CNL_TP_PVDR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t19.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t19.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t19.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t19.EFF_TO_DT
 	 LEFT JOIN EMPE_DIM t21 ON t21.EMPE_ID = t.AR_RLTNP_OFCR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t21.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t21.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t21.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t21.EFF_TO_DT
 	LEFT JOIN SRC_STM_DIM t24 ON t24.LVL_0_ID = t.SRC_STM_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t24.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t24.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t24.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t24.EFF_TO_DT
 	 LEFT JOIN CTY_DIM t25 ON t25.LVL_0_ID = t.CTY_OF_TXN_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t25.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t25.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t25.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t25.EFF_TO_DT
 		LEFT JOIN TMP_CST_SEG ON TMP_CST_SEG.CST_ID = t.CST_DIM_ID AND TMP_CST_SEG.TM_PRD_ID = t.CDR_DIM_ID
 	LEFT JOIN TXN_AMT_SEG_DIM TXN_AMT_SEG_DIM ON
 	   abs(t.TXN_CR_AMT_LCY - t.TXN_DB_AMT_LCY) &gt;= TXN_AMT_SEG_DIM.MIN_BAL AND abs(t.TXN_CR_AMT_LCY - t.TXN_DB_AMT_LCY) &lt; TXN_AMT_SEG_DIM.MAX_BAL
 		LEFT JOIN (SELECT DISTINCT PD_ID, CARD_TP_ACQ_LVL_0_ID FROM EX_MAP_CARD_TP_ACQ e
 				INNER JOIN CSTB_SYSTEM SYS ON SYS.PARAM_NAME = 'ETL_DATE' 
-				where  TO_DATE(#pDate#,'YYYYDDD') &gt;= e.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; e.EFF_TO_DT
+				where  TO_DATE(:pDate:,'YYYYDDD') &gt;= e.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; e.EFF_TO_DT
 				) e ON e.PD_ID = t.PD_DIM_ID
 	LEFT JOIN CARD_TP_ACQ_DIM t26 ON t26.LVL_0_ID = e.CARD_TP_ACQ_LVL_0_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t26.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t26.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t26.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t26.EFF_TO_DT
 	LEFT JOIN AR_DIM_SVC t27 ON t27.AR_ID = t.PRIM_AR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t27.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t27.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t27.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t27.EFF_TO_DT
 	LEFT JOIN admin.TMP_CST_BAL_LMT_SLRY_AGE_SEG on t.CST_DIM_ID = TMP_CST_BAL_LMT_SLRY_AGE_SEG.CST_ID
 	LEFT JOIN EMPE_DIM   on EMPE_DIM.EMPE_ID=t.OBJ_IP_ID 
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= EMPE_DIM.EFF_FM_DT
-		AND EMPE_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= EMPE_DIM.EFF_FM_DT
+		AND EMPE_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
 	LEFT JOIN OU_DIM ON T.TXN_ORG_UNIT_ID = OU_DIM.ORG_UNIT_ID
-		AND OU_DIM.EFF_FM_DT  &lt;= TO_DATE(#pDate#,'YYYYDDD') 
-		AND OU_DIM.EFF_TO_DT &gt; TO_DATE(#pDate#,'YYYYDDD')
+		AND OU_DIM.EFF_FM_DT  &lt;= TO_DATE(:pDate:,'YYYYDDD') 
+		AND OU_DIM.EFF_TO_DT &gt; TO_DATE(:pDate:,'YYYYDDD')
 		LEFT JOIN OU_DIM t30 ON t30.ORG_UNIT_ID = t.MRCH_MGT_DEP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t30.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t30.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t30.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t30.EFF_TO_DT
 	LEFT JOIN OU_DIM t31 ON t31.ORG_UNIT_ID = t.CNL_MGT_DEP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t31.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t31.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t31.EFF_TO_DT
 	LEFT JOIN OU_DIM t32 ON t32.ORG_UNIT_ID = t.AR_MGT_DEP_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t32.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t32.EFF_TO_DT
 	LEFT JOIN EMPE_DIM T33 ON T33.EMPE_ID=T.CNL_OFCR_EMPE_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t32.EFF_TO_DT
-	LEFT JOIN OU_DIM RQS_CNL_MGT_DEP ON RQS_CNL_MGT_DEP.ORG_UNIT_ID = t.RQS_CNL_MGT_DEP_ID AND TO_DATE(#pDate#, 'YYYYDDD') BETWEEN RQS_CNL_MGT_DEP.EFF_FM_DT AND RQS_CNL_MGT_DEP.EFF_TO_DT - 1 		LEFT JOIN AR_DIM t34 ON t34.AR_ID = t.SCD_AR_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t34.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t34.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t32.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t32.EFF_TO_DT
+	LEFT JOIN OU_DIM RQS_CNL_MGT_DEP ON RQS_CNL_MGT_DEP.ORG_UNIT_ID = t.RQS_CNL_MGT_DEP_ID AND TO_DATE(:pDate:, 'YYYYDDD') BETWEEN RQS_CNL_MGT_DEP.EFF_FM_DT AND RQS_CNL_MGT_DEP.EFF_TO_DT - 1 		LEFT JOIN AR_DIM t34 ON t34.AR_ID = t.SCD_AR_DIM_ID
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t34.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t34.EFF_TO_DT
 	LEFT JOIN ACG_STC_ITM_DIM t35 ON t35.LVL_0_ID = t.ACG_STC_ITM_DIM_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t35.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t35.EFF_TO_DT 
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t35.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t35.EFF_TO_DT 
 	LEFT JOIN CCY_DIM t36 ON t36.CCY_ID = t.SCD_CCY_ID
-		AND TO_DATE(#pDate#,'YYYYDDD') &gt;= t36.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; t36.EFF_TO_DT
+		AND TO_DATE(:pDate:,'YYYYDDD') &gt;= t36.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; t36.EFF_TO_DT
 	LEFT JOIN EMPE_DIM T37 ON T37.EMPE_ID = T.APRV_USR_1_EMPE_DIM_ID
-	AND TO_DATE(#pDate#,'YYYYDDD') &gt;= T37.EFF_FM_DT AND TO_DATE(#pDate#,'YYYYDDD') &lt; T37.EFF_TO_DT
+	AND TO_DATE(:pDate:,'YYYYDDD') &gt;= T37.EFF_FM_DT AND TO_DATE(:pDate:,'YYYYDDD') &lt; T37.EFF_TO_DT
 ) A;</t>
         </is>
       </c>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DELETE FROM CNL_TXN_ANL_FCT where CDR_DIM_ID=#pDate#  and FEE_TP_DIM_ID=0;</t>
+          <t>DELETE FROM CNL_TXN_ANL_FCT where CDR_DIM_ID=:pDate:  and FEE_TP_DIM_ID=0;</t>
         </is>
       </c>
     </row>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DELETE FROM  CNL_TXN_ANL_FCT_SMY WHERE  CDR_DIM_ID=#pDate#;</t>
+          <t>DELETE FROM  CNL_TXN_ANL_FCT_SMY WHERE  CDR_DIM_ID=:pDate:;</t>
         </is>
       </c>
     </row>
@@ -14216,18 +14216,18 @@
 	, NVL(TMP_CST_SEG.CST_LIFE_CYC_ST_DIM_ID,999999)		CST_LC_ST_DIM_ID
 	, twt.TOTAL_NET_INCM_YTD
 FROM  TWT_CST_BR_ANL_FCT twt
-LEFT JOIN OU_DIM OU_DIM on OU_DIM.ORG_UNIT_ID = twt.ORG_UNIT_ID and to_date(#pDate#,'yyyyddd') between OU_DIM.EFF_FM_DT and OU_DIM.EFF_TO_DT - 1
-LEFT JOIN OU_DIM CST_OU on CST_OU.ORG_UNIT_ID = twt.PRIM_BR_ID and to_date(#pDate#,'yyyyddd') between CST_OU.EFF_FM_DT and CST_OU.EFF_TO_DT - 1
-LEFT JOIN CST_DIM on CST_DIM.CST_ID = twt.CST_ID and to_date(#pDate#,'yyyyddd') between CST_DIM.EFF_FM_DT and CST_DIM.EFF_TO_DT - 1
+LEFT JOIN OU_DIM OU_DIM on OU_DIM.ORG_UNIT_ID = twt.ORG_UNIT_ID and to_date(:pDate:,'yyyyddd') between OU_DIM.EFF_FM_DT and OU_DIM.EFF_TO_DT - 1
+LEFT JOIN OU_DIM CST_OU on CST_OU.ORG_UNIT_ID = twt.PRIM_BR_ID and to_date(:pDate:,'yyyyddd') between CST_OU.EFF_FM_DT and CST_OU.EFF_TO_DT - 1
+LEFT JOIN CST_DIM on CST_DIM.CST_ID = twt.CST_ID and to_date(:pDate:,'yyyyddd') between CST_DIM.EFF_FM_DT and CST_DIM.EFF_TO_DT - 1
 LEFT JOIN TMP_CST_SEG on TMP_CST_SEG.CST_ID = twt.CST_ID
 LEFT JOIN TMP_CST_BAL_LMT_SLRY_AGE_SEG on TMP_CST_BAL_LMT_SLRY_AGE_SEG.CST_ID = twt.CST_ID
-LEFT JOIN EMPE_DIM ON EMPE_DIM.EMPE_ID = TWT.CST_ID AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN EMPE_DIM.EFF_FM_DT AND EMPE_DIM.EFF_TO_DT - 1
-LEFT JOIN EMPE_DIM CST_RLTNP_OFCR ON CST_RLTNP_OFCR.EMPE_ID = TWT.CST_RLTNP_OFCR_ID AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN CST_RLTNP_OFCR.EFF_FM_DT AND CST_RLTNP_OFCR.EFF_TO_DT - 1
-LEFT JOIN OU_DIM CST_MGT_DEPT ON CST_MGT_DEPT.ORG_UNIT_ID = TWT.CST_RLTNP_DEPT_ID AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN CST_MGT_DEPT.EFF_FM_DT AND CST_MGT_DEPT.EFF_TO_DT - 1
-LEFT JOIN CST_RLTNP_TP_DIM CST_RLTNP_TP ON CST_RLTNP_TP.LVL_0_CODE = twt.CST_RLTNP_CODE AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN CST_RLTNP_TP.EFF_FM_DT AND CST_RLTNP_TP.EFF_TO_DT - 1
-LEFT JOIN CST_RLTNP_TP_DIM CST_BR_RLTNP_TP ON CST_BR_RLTNP_TP.LVL_0_CODE = TWT.CST_BR_RLTNP_CODE AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN CST_BR_RLTNP_TP.EFF_FM_DT AND CST_BR_RLTNP_TP.EFF_TO_DT - 1
-LEFT JOIN CST_PFT_SEG_DIM CST_PFT_SEG ON CST_PFT_SEG.LVL_0_CODE = twt.CST_PFT_SEG_CODE AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN CST_PFT_SEG.EFF_FM_DT AND CST_PFT_SEG.EFF_TO_DT - 1
-LEFT JOIN CST_PFT_SEG_DIM CST_BRN_PFT_SEG ON CST_BRN_PFT_SEG.LVL_0_CODE = TWT.CST_BRN_PFT_SEG_CODE AND TO_DATE(#pDate#,'YYYYDDD') BETWEEN CST_BRN_PFT_SEG.EFF_FM_DT AND CST_BRN_PFT_SEG.EFF_TO_DT - 1
+LEFT JOIN EMPE_DIM ON EMPE_DIM.EMPE_ID = TWT.CST_ID AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN EMPE_DIM.EFF_FM_DT AND EMPE_DIM.EFF_TO_DT - 1
+LEFT JOIN EMPE_DIM CST_RLTNP_OFCR ON CST_RLTNP_OFCR.EMPE_ID = TWT.CST_RLTNP_OFCR_ID AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN CST_RLTNP_OFCR.EFF_FM_DT AND CST_RLTNP_OFCR.EFF_TO_DT - 1
+LEFT JOIN OU_DIM CST_MGT_DEPT ON CST_MGT_DEPT.ORG_UNIT_ID = TWT.CST_RLTNP_DEPT_ID AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN CST_MGT_DEPT.EFF_FM_DT AND CST_MGT_DEPT.EFF_TO_DT - 1
+LEFT JOIN CST_RLTNP_TP_DIM CST_RLTNP_TP ON CST_RLTNP_TP.LVL_0_CODE = twt.CST_RLTNP_CODE AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN CST_RLTNP_TP.EFF_FM_DT AND CST_RLTNP_TP.EFF_TO_DT - 1
+LEFT JOIN CST_RLTNP_TP_DIM CST_BR_RLTNP_TP ON CST_BR_RLTNP_TP.LVL_0_CODE = TWT.CST_BR_RLTNP_CODE AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN CST_BR_RLTNP_TP.EFF_FM_DT AND CST_BR_RLTNP_TP.EFF_TO_DT - 1
+LEFT JOIN CST_PFT_SEG_DIM CST_PFT_SEG ON CST_PFT_SEG.LVL_0_CODE = twt.CST_PFT_SEG_CODE AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN CST_PFT_SEG.EFF_FM_DT AND CST_PFT_SEG.EFF_TO_DT - 1
+LEFT JOIN CST_PFT_SEG_DIM CST_BRN_PFT_SEG ON CST_BRN_PFT_SEG.LVL_0_CODE = TWT.CST_BRN_PFT_SEG_CODE AND TO_DATE(:pDate:,'YYYYDDD') BETWEEN CST_BRN_PFT_SEG.EFF_FM_DT AND CST_BRN_PFT_SEG.EFF_TO_DT - 1
 ;</t>
         </is>
       </c>
@@ -14240,7 +14240,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DELETE FROM CST_BR_ANL_FCT WHERE CDR_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM CST_BR_ANL_FCT WHERE CDR_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -17440,52 +17440,52 @@
        , NVL(SRC_STM_DIM.SRC_STM_DIM_ID, '999999')	SRC_STM_DIM_ID
 		, NVL(PRE.TOT_AST_ADJ_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_ADJ_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_AST_ADJ_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) END			TOT_AST_ADJ_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_AST_ADJ_FTP_AMT_QTD_LCY, 0)  END 		TOT_AST_ADJ_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_AST_ADJ_FTP_AMT_YTD_LCY, 0)  END 		TOT_AST_ADJ_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_ADJ_FTP_AMT_TDY_LCY         
 		, NVL(PRE.TOT_AST_BSC_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0)					TOT_AST_BSC_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_AST_BSC_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) END			TOT_AST_BSC_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_AST_BSC_FTP_AMT_QTD_LCY, 0)  END 		TOT_AST_BSC_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_AST_BSC_FTP_AMT_YTD_LCY, 0)  END 		TOT_AST_BSC_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0)					TOT_AST_BSC_FTP_AMT_TDY_LCY        
 		, NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_MNUL_ADJ_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) END			TOT_AST_MNUL_ADJ_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_QTD_LCY, 0)  END 		TOT_AST_MNUL_ADJ_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_YTD_LCY, 0)  END 		TOT_AST_MNUL_ADJ_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY          
 		, NVL(PRE.TOT_LBY_ADJ_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_LBY_ADJ_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_LBY_ADJ_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) END			TOT_LBY_ADJ_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_LBY_ADJ_FTP_AMT_QTD_LCY, 0)  END 		TOT_LBY_ADJ_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_LBY_ADJ_FTP_AMT_YTD_LCY, 0)  END 		TOT_LBY_ADJ_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_LBY_ADJ_FTP_AMT_TDY_LCY          
 		, NVL(PRE.TOT_LBY_BSC_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0)					TOT_LBY_BSC_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_LBY_BSC_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) END			TOT_LBY_BSC_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_LBY_BSC_FTP_AMT_QTD_LCY, 0)  END 		TOT_LBY_BSC_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_LBY_BSC_FTP_AMT_YTD_LCY, 0)  END 		TOT_LBY_BSC_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0)					TOT_LBY_BSC_FTP_AMT_TDY_LCY          
 		, NVL(PRE.TOT_LBY_MNUL_FTP_AMT_LTD_LCY, 0)	+ 	NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0)			TOT_LBY_MNUL_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_LBY_MNUL_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) END			TOT_LBY_MNUL_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_LBY_MNUL_FTP_AMT_QTD_LCY, 0)  END 		TOT_LBY_MNUL_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_LBY_MNUL_FTP_AMT_YTD_LCY, 0)  END 		TOT_LBY_MNUL_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0)					TOT_LBY_MNUL_FTP_AMT_TDY_LCY 
 		, NVL(PRE.LBY_PNY_FTP_AMT_LTD_LCY, 0)	+ 	NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0)			LBY_PNY_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.LBY_PNY_FTP_AMT_MTD_LCY, 0) + NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) END			LBY_PNY_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) + NVL(PRE.LBY_PNY_FTP_AMT_QTD_LCY, 0)  END 		LBY_PNY_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.LBY_PNY_FTP_AMT_YTD_LCY, 0)  END 		LBY_PNY_FTP_AMT_YTD_LCY
 		, NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0)					LBY_PNY_FTP_AMT_TDY_LCY
 FROM TWT_CST_PD_ANL_FTP  TWT
 INNER JOIN 		CDR_DT_DIM CDR_DT_DIM ON TWT.TM_PRD_DIM_ID = CDR_DT_DIM.CDR_DT_DIM_ID
-LEFT JOIN  		CST_DIM CST_DIM 			ON CST_DIM.CST_ID = twt.CST_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= CST_DIM.EFF_FM_DT AND CST_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT JOIN 		OU_DIM OU_DIM 				ON TWT.ORG_UNIT_ID = OU_DIM.ORG_UNIT_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= OU_DIM.EFF_FM_DT AND OU_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT  JOIN PD_DIM PD_DIM			ON PD_DIM.PD_ID = TWT.PD_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= PD_DIM.EFF_FM_DT AND PD_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT JOIN SRC_STM_DIM SRC_STM_DIM	ON SRC_STM_DIM.LVL_0_ID	= TWT.SRC_STM_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= SRC_STM_DIM.EFF_FM_DT AND SRC_STM_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
+LEFT JOIN  		CST_DIM CST_DIM 			ON CST_DIM.CST_ID = twt.CST_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= CST_DIM.EFF_FM_DT AND CST_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT JOIN 		OU_DIM OU_DIM 				ON TWT.ORG_UNIT_ID = OU_DIM.ORG_UNIT_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= OU_DIM.EFF_FM_DT AND OU_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT  JOIN PD_DIM PD_DIM			ON PD_DIM.PD_ID = TWT.PD_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= PD_DIM.EFF_FM_DT AND PD_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT JOIN SRC_STM_DIM SRC_STM_DIM	ON SRC_STM_DIM.LVL_0_ID	= TWT.SRC_STM_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= SRC_STM_DIM.EFF_FM_DT AND SRC_STM_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
 LEFT JOIN cst_pd_anl_fct_ftp_preday  PRE ON PRE.CST_ID = TWT.CST_ID    AND PRE.PD_ID = TWT.PD_ID 
 AND PRE.ORG_UNIT_ID = TWT.ORG_UNIT_ID   AND PRE.SRC_STM_DIM_ID = SRC_STM_DIM.SRC_STM_DIM_ID;</t>
         </is>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DELETE FROM CST_PD_ANL_FCT_FTP where tm_prd_dim_id = #pDate#;</t>
+          <t>DELETE FROM CST_PD_ANL_FCT_FTP where tm_prd_dim_id = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -17522,55 +17522,55 @@
        , NVL(SRC_STM_DIM.SRC_STM_DIM_ID, '999999')	SRC_STM_DIM_ID
 		, NVL(PRE.TOT_AST_ADJ_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_ADJ_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_AST_ADJ_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) END			TOT_AST_ADJ_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_AST_ADJ_FTP_AMT_QTD_LCY, 0)  END 		TOT_AST_ADJ_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_AST_ADJ_FTP_AMT_YTD_LCY, 0)  END 		TOT_AST_ADJ_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_AST_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_ADJ_FTP_AMT_TDY_LCY         
 		, NVL(PRE.TOT_AST_BSC_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0)					TOT_AST_BSC_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_AST_BSC_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) END			TOT_AST_BSC_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_AST_BSC_FTP_AMT_QTD_LCY, 0)  END 		TOT_AST_BSC_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_AST_BSC_FTP_AMT_YTD_LCY, 0)  END 		TOT_AST_BSC_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_AST_BSC_FTP_AMT_TDY_LCY, 0)					TOT_AST_BSC_FTP_AMT_TDY_LCY        
 		, NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_MNUL_ADJ_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) END			TOT_AST_MNUL_ADJ_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_QTD_LCY, 0)  END 		TOT_AST_MNUL_ADJ_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_AST_MNUL_ADJ_FTP_AMT_YTD_LCY, 0)  END 		TOT_AST_MNUL_ADJ_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_AST_MNUL_ADJ_FTP_AMT_TDY_LCY          
 		, NVL(PRE.TOT_LBY_ADJ_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_LBY_ADJ_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_LBY_ADJ_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) END			TOT_LBY_ADJ_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_LBY_ADJ_FTP_AMT_QTD_LCY, 0)  END 		TOT_LBY_ADJ_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_LBY_ADJ_FTP_AMT_YTD_LCY, 0)  END 		TOT_LBY_ADJ_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_LBY_ADJ_FTP_AMT_TDY_LCY, 0)					TOT_LBY_ADJ_FTP_AMT_TDY_LCY          
 		, NVL(PRE.TOT_LBY_BSC_FTP_AMT_LTD_LCY, 0) + NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0)					TOT_LBY_BSC_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_LBY_BSC_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) END			TOT_LBY_BSC_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_LBY_BSC_FTP_AMT_QTD_LCY, 0)  END 		TOT_LBY_BSC_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_LBY_BSC_FTP_AMT_YTD_LCY, 0)  END 		TOT_LBY_BSC_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_LBY_BSC_FTP_AMT_TDY_LCY, 0)					TOT_LBY_BSC_FTP_AMT_TDY_LCY          
 		, NVL(PRE.TOT_LBY_MNUL_FTP_AMT_LTD_LCY, 0)	+ 	NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0)			TOT_LBY_MNUL_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.TOT_LBY_MNUL_FTP_AMT_MTD_LCY, 0) + NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) END			TOT_LBY_MNUL_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) + NVL(PRE.TOT_LBY_MNUL_FTP_AMT_QTD_LCY, 0)  END 		TOT_LBY_MNUL_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.TOT_LBY_MNUL_FTP_AMT_YTD_LCY, 0)  END 		TOT_LBY_MNUL_FTP_AMT_YTD_LCY
 		, NVL(TWT.TOT_LBY_MNUL_FTP_AMT_TDY_LCY, 0)					TOT_LBY_MNUL_FTP_AMT_TDY_LCY 
 		, NVL(PRE.LBY_PNY_FTP_AMT_LTD_LCY, 0)	+ 	NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0)			LBY_PNY_FTP_AMT_LTD_LCY           
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_MO = 1	THEN NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) ELSE  NVL(PRE.LBY_PNY_FTP_AMT_MTD_LCY, 0) + NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) END			LBY_PNY_FTP_AMT_MTD_LCY
-		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(#pDate#,'YYYYDDD') - date_trunc('quarter', TO_DATE(#pDate#,'YYYYDDD'))),99) + 1 = 1 
+		, CASE WHEN TO_NUMBER(extract (day from TO_DATE(:pDate:,'YYYYDDD') - date_trunc('quarter', TO_DATE(:pDate:,'YYYYDDD'))),99) + 1 = 1 
 	      THEN NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0)   ELSE NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) + NVL(PRE.LBY_PNY_FTP_AMT_QTD_LCY, 0)  END 		LBY_PNY_FTP_AMT_QTD_LCY
 		, CASE WHEN CDR_DT_DIM.DAY_NBR_IN_CDR_YR = 1	THEN NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) ELSE 	NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0) + 	NVL(PRE.LBY_PNY_FTP_AMT_YTD_LCY, 0)  END 		LBY_PNY_FTP_AMT_YTD_LCY
 		, NVL(TWT.LBY_PNY_FTP_AMT_TDY_LCY, 0)					LBY_PNY_FTP_AMT_TDY_LCY
 FROM TWT_CST_PD_ANL_FTP_ODTIER  TWT
 LEFT JOIN 		CDR_DT_DIM CDR_DT_DIM ON TWT.TM_PRD_DIM_ID = CDR_DT_DIM.CDR_DT_DIM_ID
-LEFT JOIN  		CST_DIM CST_DIM 			ON CST_DIM.CST_ID = twt.CST_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= CST_DIM.EFF_FM_DT AND CST_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT JOIN 		OU_DIM OU_DIM 				ON TWT.ORG_UNIT_ID = OU_DIM.ORG_UNIT_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= OU_DIM.EFF_FM_DT AND OU_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT  JOIN PD_DIM PD_DIM			ON PD_DIM.PD_ID = TWT.PD_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= PD_DIM.EFF_FM_DT AND PD_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
-LEFT JOIN SRC_STM_DIM SRC_STM_DIM	ON SRC_STM_DIM.LVL_0_ID	= TWT.SRC_STM_ID AND TO_DATE(#pDate#,'YYYYDDD') &gt;= SRC_STM_DIM.EFF_FM_DT AND SRC_STM_DIM.EFF_TO_DT &gt;  TO_DATE(#pDate#,'YYYYDDD')
+LEFT JOIN  		CST_DIM CST_DIM 			ON CST_DIM.CST_ID = twt.CST_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= CST_DIM.EFF_FM_DT AND CST_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT JOIN 		OU_DIM OU_DIM 				ON TWT.ORG_UNIT_ID = OU_DIM.ORG_UNIT_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= OU_DIM.EFF_FM_DT AND OU_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT  JOIN PD_DIM PD_DIM			ON PD_DIM.PD_ID = TWT.PD_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= PD_DIM.EFF_FM_DT AND PD_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
+LEFT JOIN SRC_STM_DIM SRC_STM_DIM	ON SRC_STM_DIM.LVL_0_ID	= TWT.SRC_STM_ID AND TO_DATE(:pDate:,'YYYYDDD') &gt;= SRC_STM_DIM.EFF_FM_DT AND SRC_STM_DIM.EFF_TO_DT &gt;  TO_DATE(:pDate:,'YYYYDDD')
 LEFT JOIN CST_PD_ANL_FCT_FTP_ODTIER PRE ON PRE.CST_ID = TWT.CST_ID    AND PRE.PD_ID = TWT.PD_ID 
 AND PRE.ORG_UNIT_ID = TWT.ORG_UNIT_ID   AND PRE.SRC_STM_DIM_ID = SRC_STM_DIM.SRC_STM_DIM_ID 
-AND TO_NUMBER(TO_CHAR(TO_DATE(PRE.TM_PRD_DIM_ID,'YYYYDDD') + 1,'YYYYDDD'), 9999999) = #pDate#
+AND TO_NUMBER(TO_CHAR(TO_DATE(PRE.TM_PRD_DIM_ID,'YYYYDDD') + 1,'YYYYDDD'), 9999999) = :pDate:
 where twt.SRC_STM_ID = 910024;</t>
         </is>
       </c>
@@ -18333,7 +18333,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DELETE FROM CST_PD_ANL_FCT_SMY WHERE TM_PRD_DIM_ID = #pDate#;</t>
+          <t>DELETE FROM CST_PD_ANL_FCT_SMY WHERE TM_PRD_DIM_ID = :pDate:;</t>
         </is>
       </c>
     </row>
@@ -18407,11 +18407,11 @@
 INNER JOIN PD_DIM ON PD_DIM.PD_DIM_ID = F.PD_DIM_ID 
 INNER JOIN SRC_STM_DIM SRC ON SRC.SRC_STM_DIM_ID = F.SRC_STM_DIM_ID
 LEFT JOIN CSTB_PD_TKTL TKTL ON TKTL.PDCODE ||'_'||TKTL.PDCURR = PD_DIM.UNQ_ID_SRC_STM AND PD_DIM.PD_TP_CODE = 'DD_PRODUCT'
-AND TKTL.EFF_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD') AND TKTL.END_DT &gt; TO_DATE(#pDate#, 'YYYYDDD')
+AND TKTL.EFF_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD') AND TKTL.END_DT &gt; TO_DATE(:pDate:, 'YYYYDDD')
 LEFT JOIN EX_MAP_CARD_TP_ACQ CARD ON CARD.PD_CODE = PD_DIM.UNQ_ID_SRC_STM      AND 	CARD.PD_TP_CODE = PD_DIM.PD_TP_CODE
-AND CARD.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD') AND CARD.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD')
+AND CARD.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD') AND CARD.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD')
 WHERE F.CST_PD_ST_BRN_CODE NOT IN ( 'CLOSE ALL'  , 'CLOSE ALL TODAY') 
-AND F.TM_PRD_DIM_ID = #pDate# 
+AND F.TM_PRD_DIM_ID = :pDate: 
 GROUP BY CST_ID, CST_DIM_ID, TM_PRD_DIM_ID, CST_TP_DIM_ID, ORG_UNIT_DIM_ID;</t>
         </is>
       </c>
@@ -18445,10 +18445,10 @@
 INNER JOIN PD_DIM ON PD_DIM.PD_DIM_ID = F.PD_DIM_ID 
 INNER JOIN SRC_STM_DIM SRC ON SRC.SRC_STM_DIM_ID = F.SRC_STM_DIM_ID
 LEFT JOIN CSTB_PD_TKTL TKTL ON TKTL.PDCODE ||'_'||TKTL.PDCURR = PD_DIM.UNQ_ID_SRC_STM AND PD_DIM.PD_TP_CODE = 'DD_PRODUCT'
-AND TKTL.EFF_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD') AND TKTL.END_DT &gt; TO_DATE(#pDate#, 'YYYYDDD')
+AND TKTL.EFF_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD') AND TKTL.END_DT &gt; TO_DATE(:pDate:, 'YYYYDDD')
 LEFT JOIN EX_MAP_CARD_TP_ACQ CARD ON CARD.PD_CODE = PD_DIM.UNQ_ID_SRC_STM      AND 	CARD.PD_TP_CODE = PD_DIM.PD_TP_CODE
-AND CARD.EFF_FM_DT &lt;= TO_DATE(#pDate#, 'YYYYDDD') AND CARD.EFF_TO_DT &gt; TO_DATE(#pDate#, 'YYYYDDD')
-WHERE F.CST_PD_ST_CODE NOT IN ( 'CLOSE ALL', 'CLOSE ALL TODAY')       AND F.TM_PRD_DIM_ID = #pDate#
+AND CARD.EFF_FM_DT &lt;= TO_DATE(:pDate:, 'YYYYDDD') AND CARD.EFF_TO_DT &gt; TO_DATE(:pDate:, 'YYYYDDD')
+WHERE F.CST_PD_ST_CODE NOT IN ( 'CLOSE ALL', 'CLOSE ALL TODAY')       AND F.TM_PRD_DIM_ID = :pDate:
 GROUP BY  CST_DIM_ID, TM_PRD_DIM_ID;</t>
         </is>
       </c>
